--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业资产负债情况.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业资产负债情况.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,41 @@
           <t>国有及国有控股建筑业企业资产_累计值</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业存货</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业应收工程款</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业流动资产</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业竣工工程</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业负债</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>国有及国有控股建筑业企业资产</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2012年第一季度</t>
+          <t>2012年A</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -489,61 +519,115 @@
       <c r="G2" t="n">
         <v>36658.61</v>
       </c>
+      <c r="H2" t="n">
+        <v>6914.24</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6167.28</v>
+      </c>
+      <c r="J2" t="n">
+        <v>28268.79</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1656.03</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28487.97</v>
+      </c>
+      <c r="M2" t="n">
+        <v>36658.61</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年第三季度</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8690.709999999999</v>
+        <v>8291.5</v>
       </c>
       <c r="C3" t="n">
-        <v>7973.08</v>
+        <v>7322.65</v>
       </c>
       <c r="D3" t="n">
-        <v>35105.77</v>
+        <v>32644.58</v>
       </c>
       <c r="E3" t="n">
-        <v>2108.3</v>
+        <v>1926.79</v>
       </c>
       <c r="F3" t="n">
-        <v>35124.04</v>
+        <v>34071.19</v>
       </c>
       <c r="G3" t="n">
-        <v>44650.99</v>
+        <v>43725.6</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1377.26</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1155.37</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4375.790000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>270.76</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5583.220000000001</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7066.989999999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年第二季度</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8291.5</v>
+        <v>8690.709999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>7322.65</v>
+        <v>7973.08</v>
       </c>
       <c r="D4" t="n">
-        <v>32644.58</v>
+        <v>35105.77</v>
       </c>
       <c r="E4" t="n">
-        <v>1926.79</v>
+        <v>2108.3</v>
       </c>
       <c r="F4" t="n">
-        <v>34071.19</v>
+        <v>35124.04</v>
       </c>
       <c r="G4" t="n">
-        <v>43725.6</v>
+        <v>44650.99</v>
+      </c>
+      <c r="H4" t="n">
+        <v>399.2099999999991</v>
+      </c>
+      <c r="I4" t="n">
+        <v>650.4300000000003</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2461.189999999995</v>
+      </c>
+      <c r="K4" t="n">
+        <v>181.5100000000002</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1052.849999999999</v>
+      </c>
+      <c r="M4" t="n">
+        <v>925.3899999999994</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2013年第一季度</t>
+          <t>2013年A</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -564,61 +648,115 @@
       <c r="G5" t="n">
         <v>44627.19</v>
       </c>
+      <c r="H5" t="n">
+        <v>8153.87</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7489.27</v>
+      </c>
+      <c r="J5" t="n">
+        <v>34453.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1939.05</v>
+      </c>
+      <c r="L5" t="n">
+        <v>34646.97</v>
+      </c>
+      <c r="M5" t="n">
+        <v>44627.19</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年第三季度</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9962.91</v>
+        <v>9448.860000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>9482.98</v>
+        <v>8779.07</v>
       </c>
       <c r="D6" t="n">
-        <v>40021.01</v>
+        <v>37585.19</v>
       </c>
       <c r="E6" t="n">
-        <v>2488.08</v>
+        <v>2348.77</v>
       </c>
       <c r="F6" t="n">
-        <v>39855.85</v>
+        <v>37763.54</v>
       </c>
       <c r="G6" t="n">
-        <v>52121.66</v>
+        <v>48328.29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1294.990000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1289.799999999999</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3131.690000000002</v>
+      </c>
+      <c r="K6" t="n">
+        <v>409.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3116.57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3701.099999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年第二季度</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9448.860000000001</v>
+        <v>9962.91</v>
       </c>
       <c r="C7" t="n">
-        <v>8779.07</v>
+        <v>9482.98</v>
       </c>
       <c r="D7" t="n">
-        <v>37585.19</v>
+        <v>40021.01</v>
       </c>
       <c r="E7" t="n">
-        <v>2348.77</v>
+        <v>2488.08</v>
       </c>
       <c r="F7" t="n">
-        <v>37763.54</v>
+        <v>39855.85</v>
       </c>
       <c r="G7" t="n">
-        <v>48328.29</v>
+        <v>52121.66</v>
+      </c>
+      <c r="H7" t="n">
+        <v>514.0499999999993</v>
+      </c>
+      <c r="I7" t="n">
+        <v>703.9099999999999</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2435.82</v>
+      </c>
+      <c r="K7" t="n">
+        <v>139.3099999999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2092.309999999998</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3793.370000000003</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年第一季度</t>
+          <t>2014年A</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -637,57 +775,105 @@
       <c r="G8" t="n">
         <v>50526.3</v>
       </c>
+      <c r="H8" t="n">
+        <v>9408.450000000001</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9006.09</v>
+      </c>
+      <c r="J8" t="n">
+        <v>39743.77</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>39775.74</v>
+      </c>
+      <c r="M8" t="n">
+        <v>50526.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年第三季度</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11240.88</v>
+        <v>10489.51</v>
       </c>
       <c r="C9" t="n">
-        <v>11402.55</v>
+        <v>10618.37</v>
       </c>
       <c r="D9" t="n">
-        <v>46956.82</v>
+        <v>43527.48</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>46574.93</v>
+        <v>43416.7</v>
       </c>
       <c r="G9" t="n">
-        <v>58909.5</v>
+        <v>54660.58</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1081.059999999999</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1612.280000000001</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3783.710000000006</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>3640.959999999999</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4134.279999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年第二季度</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10489.51</v>
+        <v>11240.88</v>
       </c>
       <c r="C10" t="n">
-        <v>10618.37</v>
+        <v>11402.55</v>
       </c>
       <c r="D10" t="n">
-        <v>43527.48</v>
+        <v>46956.82</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>43416.7</v>
+        <v>46574.93</v>
       </c>
       <c r="G10" t="n">
-        <v>54660.58</v>
+        <v>58909.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>751.369999999999</v>
+      </c>
+      <c r="I10" t="n">
+        <v>784.1799999999985</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3429.339999999997</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>3158.230000000003</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4248.919999999998</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2015年第一季度</t>
+          <t>2015年A</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -706,57 +892,105 @@
       <c r="G11" t="n">
         <v>55298.55</v>
       </c>
+      <c r="H11" t="n">
+        <v>10298.91</v>
+      </c>
+      <c r="I11" t="n">
+        <v>10696.64</v>
+      </c>
+      <c r="J11" t="n">
+        <v>44364.54</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>44319.79</v>
+      </c>
+      <c r="M11" t="n">
+        <v>55298.55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年第三季度</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11733.64</v>
+        <v>10969.14</v>
       </c>
       <c r="C12" t="n">
-        <v>13439.44</v>
+        <v>12437.97</v>
       </c>
       <c r="D12" t="n">
-        <v>52077.39</v>
+        <v>47877.63</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>51222.98</v>
+        <v>48274.97</v>
       </c>
       <c r="G12" t="n">
-        <v>65307.07</v>
+        <v>59760.72</v>
+      </c>
+      <c r="H12" t="n">
+        <v>670.2299999999996</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1741.33</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3513.089999999997</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>3955.18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4462.169999999998</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年第二季度</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10969.14</v>
+        <v>11733.64</v>
       </c>
       <c r="C13" t="n">
-        <v>12437.97</v>
+        <v>13439.44</v>
       </c>
       <c r="D13" t="n">
-        <v>47877.63</v>
+        <v>52077.39</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>48274.97</v>
+        <v>51222.98</v>
       </c>
       <c r="G13" t="n">
-        <v>59760.72</v>
+        <v>65307.07</v>
+      </c>
+      <c r="H13" t="n">
+        <v>764.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1001.470000000001</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4199.760000000002</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2948.010000000002</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5546.349999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2016年第一季度</t>
+          <t>2016年A</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -775,11 +1009,27 @@
       <c r="G14" t="n">
         <v>69165.95</v>
       </c>
+      <c r="H14" t="n">
+        <v>1064.970000000001</v>
+      </c>
+      <c r="I14" t="n">
+        <v>12788.17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3899.580000000002</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>4368.309999999998</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3858.879999999997</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2016年第三季度</t>
+          <t>2016年C</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -798,11 +1048,27 @@
       <c r="G15" t="n">
         <v>72787.85000000001</v>
       </c>
+      <c r="H15" t="n">
+        <v>99.35999999999876</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3489.539999999999</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3554.779999999999</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>2618.639999999999</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3621.900000000009</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2017年第一季度</t>
+          <t>2017年A</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -820,6 +1086,22 @@
       </c>
       <c r="G16" t="n">
         <v>74452.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>12761.09</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15305.28</v>
+      </c>
+      <c r="J16" t="n">
+        <v>350.0400000000009</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>965.4700000000012</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1664.649999999994</v>
       </c>
     </row>
   </sheetData>

--- a/data_quarter/zb/建筑业/国有及国有控股建筑业企业资产负债情况.xlsx
+++ b/data_quarter/zb/建筑业/国有及国有控股建筑业企业资产负债情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,36 +464,6 @@
           <t>国有及国有控股建筑业企业资产_累计值</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业存货</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业应收工程款</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业流动资产</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业竣工工程</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业负债</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>国有及国有控股建筑业企业资产</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -519,109 +489,55 @@
       <c r="G2" t="n">
         <v>36658.61</v>
       </c>
-      <c r="H2" t="n">
-        <v>6914.24</v>
-      </c>
-      <c r="I2" t="n">
-        <v>6167.28</v>
-      </c>
-      <c r="J2" t="n">
-        <v>28268.79</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1656.03</v>
-      </c>
-      <c r="L2" t="n">
-        <v>28487.97</v>
-      </c>
-      <c r="M2" t="n">
-        <v>36658.61</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2012年B</t>
+          <t>2012年C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8291.5</v>
+        <v>8690.709999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>7322.65</v>
+        <v>7973.08</v>
       </c>
       <c r="D3" t="n">
-        <v>32644.58</v>
+        <v>35105.77</v>
       </c>
       <c r="E3" t="n">
-        <v>1926.79</v>
+        <v>2108.3</v>
       </c>
       <c r="F3" t="n">
-        <v>34071.19</v>
+        <v>35124.04</v>
       </c>
       <c r="G3" t="n">
-        <v>43725.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1377.26</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1155.37</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4375.790000000001</v>
-      </c>
-      <c r="K3" t="n">
-        <v>270.76</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5583.220000000001</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7066.989999999998</v>
+        <v>44650.99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年C</t>
+          <t>2012年B</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8690.709999999999</v>
+        <v>8291.5</v>
       </c>
       <c r="C4" t="n">
-        <v>7973.08</v>
+        <v>7322.65</v>
       </c>
       <c r="D4" t="n">
-        <v>35105.77</v>
+        <v>32644.58</v>
       </c>
       <c r="E4" t="n">
-        <v>2108.3</v>
+        <v>1926.79</v>
       </c>
       <c r="F4" t="n">
-        <v>35124.04</v>
+        <v>34071.19</v>
       </c>
       <c r="G4" t="n">
-        <v>44650.99</v>
-      </c>
-      <c r="H4" t="n">
-        <v>399.2099999999991</v>
-      </c>
-      <c r="I4" t="n">
-        <v>650.4300000000003</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2461.189999999995</v>
-      </c>
-      <c r="K4" t="n">
-        <v>181.5100000000002</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1052.849999999999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>925.3899999999994</v>
+        <v>43725.6</v>
       </c>
     </row>
     <row r="5">
@@ -648,109 +564,55 @@
       <c r="G5" t="n">
         <v>44627.19</v>
       </c>
-      <c r="H5" t="n">
-        <v>8153.87</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7489.27</v>
-      </c>
-      <c r="J5" t="n">
-        <v>34453.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1939.05</v>
-      </c>
-      <c r="L5" t="n">
-        <v>34646.97</v>
-      </c>
-      <c r="M5" t="n">
-        <v>44627.19</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2013年B</t>
+          <t>2013年C</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9448.860000000001</v>
+        <v>9962.91</v>
       </c>
       <c r="C6" t="n">
-        <v>8779.07</v>
+        <v>9482.98</v>
       </c>
       <c r="D6" t="n">
-        <v>37585.19</v>
+        <v>40021.01</v>
       </c>
       <c r="E6" t="n">
-        <v>2348.77</v>
+        <v>2488.08</v>
       </c>
       <c r="F6" t="n">
-        <v>37763.54</v>
+        <v>39855.85</v>
       </c>
       <c r="G6" t="n">
-        <v>48328.29</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1294.990000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1289.799999999999</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3131.690000000002</v>
-      </c>
-      <c r="K6" t="n">
-        <v>409.72</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3116.57</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3701.099999999999</v>
+        <v>52121.66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年C</t>
+          <t>2013年B</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9962.91</v>
+        <v>9448.860000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>9482.98</v>
+        <v>8779.07</v>
       </c>
       <c r="D7" t="n">
-        <v>40021.01</v>
+        <v>37585.19</v>
       </c>
       <c r="E7" t="n">
-        <v>2488.08</v>
+        <v>2348.77</v>
       </c>
       <c r="F7" t="n">
-        <v>39855.85</v>
+        <v>37763.54</v>
       </c>
       <c r="G7" t="n">
-        <v>52121.66</v>
-      </c>
-      <c r="H7" t="n">
-        <v>514.0499999999993</v>
-      </c>
-      <c r="I7" t="n">
-        <v>703.9099999999999</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2435.82</v>
-      </c>
-      <c r="K7" t="n">
-        <v>139.3099999999999</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2092.309999999998</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3793.370000000003</v>
+        <v>48328.29</v>
       </c>
     </row>
     <row r="8">
@@ -775,99 +637,51 @@
       <c r="G8" t="n">
         <v>50526.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>9408.450000000001</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9006.09</v>
-      </c>
-      <c r="J8" t="n">
-        <v>39743.77</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>39775.74</v>
-      </c>
-      <c r="M8" t="n">
-        <v>50526.3</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2014年B</t>
+          <t>2014年C</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10489.51</v>
+        <v>11240.88</v>
       </c>
       <c r="C9" t="n">
-        <v>10618.37</v>
+        <v>11402.55</v>
       </c>
       <c r="D9" t="n">
-        <v>43527.48</v>
+        <v>46956.82</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>43416.7</v>
+        <v>46574.93</v>
       </c>
       <c r="G9" t="n">
-        <v>54660.58</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1081.059999999999</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1612.280000000001</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3783.710000000006</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>3640.959999999999</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4134.279999999999</v>
+        <v>58909.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2014年C</t>
+          <t>2014年B</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11240.88</v>
+        <v>10489.51</v>
       </c>
       <c r="C10" t="n">
-        <v>11402.55</v>
+        <v>10618.37</v>
       </c>
       <c r="D10" t="n">
-        <v>46956.82</v>
+        <v>43527.48</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>46574.93</v>
+        <v>43416.7</v>
       </c>
       <c r="G10" t="n">
-        <v>58909.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>751.369999999999</v>
-      </c>
-      <c r="I10" t="n">
-        <v>784.1799999999985</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3429.339999999997</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>3158.230000000003</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4248.919999999998</v>
+        <v>54660.58</v>
       </c>
     </row>
     <row r="11">
@@ -892,99 +706,51 @@
       <c r="G11" t="n">
         <v>55298.55</v>
       </c>
-      <c r="H11" t="n">
-        <v>10298.91</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10696.64</v>
-      </c>
-      <c r="J11" t="n">
-        <v>44364.54</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>44319.79</v>
-      </c>
-      <c r="M11" t="n">
-        <v>55298.55</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2015年B</t>
+          <t>2015年C</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10969.14</v>
+        <v>11733.64</v>
       </c>
       <c r="C12" t="n">
-        <v>12437.97</v>
+        <v>13439.44</v>
       </c>
       <c r="D12" t="n">
-        <v>47877.63</v>
+        <v>52077.39</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>48274.97</v>
+        <v>51222.98</v>
       </c>
       <c r="G12" t="n">
-        <v>59760.72</v>
-      </c>
-      <c r="H12" t="n">
-        <v>670.2299999999996</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1741.33</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3513.089999999997</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>3955.18</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4462.169999999998</v>
+        <v>65307.07</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年C</t>
+          <t>2015年B</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11733.64</v>
+        <v>10969.14</v>
       </c>
       <c r="C13" t="n">
-        <v>13439.44</v>
+        <v>12437.97</v>
       </c>
       <c r="D13" t="n">
-        <v>52077.39</v>
+        <v>47877.63</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>51222.98</v>
+        <v>48274.97</v>
       </c>
       <c r="G13" t="n">
-        <v>65307.07</v>
-      </c>
-      <c r="H13" t="n">
-        <v>764.5</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1001.470000000001</v>
-      </c>
-      <c r="J13" t="n">
-        <v>4199.760000000002</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>2948.010000000002</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5546.349999999999</v>
+        <v>59760.72</v>
       </c>
     </row>
     <row r="14">
@@ -1009,22 +775,6 @@
       <c r="G14" t="n">
         <v>69165.95</v>
       </c>
-      <c r="H14" t="n">
-        <v>1064.970000000001</v>
-      </c>
-      <c r="I14" t="n">
-        <v>12788.17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3899.580000000002</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>4368.309999999998</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3858.879999999997</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1048,22 +798,6 @@
       <c r="G15" t="n">
         <v>72787.85000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>99.35999999999876</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3489.539999999999</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3554.779999999999</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>2618.639999999999</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3621.900000000009</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1086,22 +820,6 @@
       </c>
       <c r="G16" t="n">
         <v>74452.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>12761.09</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15305.28</v>
-      </c>
-      <c r="J16" t="n">
-        <v>350.0400000000009</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>965.4700000000012</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1664.649999999994</v>
       </c>
     </row>
   </sheetData>
